--- a/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_equal_a_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_equal_a_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5192307692307693</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.5052854122621564</v>
       </c>
       <c r="D3">
-        <v>0.4734693877551021</v>
+        <v>0.5109170305676856</v>
       </c>
       <c r="E3">
-        <v>0.4979166666666667</v>
+        <v>0.5062761506276151</v>
       </c>
       <c r="F3">
-        <v>0.5202952029520295</v>
+        <v>0.5203252032520326</v>
       </c>
       <c r="G3">
-        <v>0.4989648033126294</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.498</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5714285714285714</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="C4">
-        <v>0.5060975609756098</v>
+        <v>0.5040485829959515</v>
       </c>
       <c r="D4">
-        <v>0.5328947368421053</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="E4">
-        <v>0.5063649222065064</v>
+        <v>0.496551724137931</v>
       </c>
       <c r="F4">
-        <v>0.5869565217391305</v>
+        <v>0.5032679738562091</v>
       </c>
       <c r="G4">
-        <v>0.4963820549927641</v>
+        <v>0.4909344490934449</v>
       </c>
       <c r="H4">
-        <v>0.492</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5274725274725275</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C5">
-        <v>0.4925093632958801</v>
+        <v>0.5055350553505535</v>
       </c>
       <c r="D5">
-        <v>0.5043478260869565</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E5">
-        <v>0.4903969270166453</v>
+        <v>0.4974874371859296</v>
       </c>
       <c r="F5">
-        <v>0.5119047619047619</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G5">
-        <v>0.483271375464684</v>
+        <v>0.4925187032418953</v>
       </c>
       <c r="H5">
-        <v>0.508</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5294117647058824</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="C6">
-        <v>0.5052631578947369</v>
+        <v>0.5197255574614065</v>
       </c>
       <c r="D6">
-        <v>0.5242718446601942</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E6">
-        <v>0.4912935323383085</v>
+        <v>0.4944785276073619</v>
       </c>
       <c r="F6">
-        <v>0.5342465753424658</v>
+        <v>0.475</v>
       </c>
       <c r="G6">
-        <v>0.4928909952606635</v>
+        <v>0.4885126964933494</v>
       </c>
       <c r="H6">
-        <v>0.508</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5520833333333334</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="C7">
-        <v>0.5031948881789138</v>
+        <v>0.5101721439749609</v>
       </c>
       <c r="D7">
-        <v>0.4615384615384616</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="E7">
-        <v>0.4908647990255786</v>
+        <v>0.4881235154394299</v>
       </c>
       <c r="F7">
-        <v>0.5324675324675324</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="G7">
-        <v>0.4988290398126464</v>
+        <v>0.4952718676122931</v>
       </c>
       <c r="H7">
-        <v>0.494</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5816326530612245</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="C8">
-        <v>0.5014367816091954</v>
+        <v>0.50509461426492</v>
       </c>
       <c r="D8">
-        <v>0.4761904761904762</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="E8">
-        <v>0.4921592279855247</v>
+        <v>0.4922526817640048</v>
       </c>
       <c r="F8">
-        <v>0.5205479452054794</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="G8">
-        <v>0.5023364485981309</v>
+        <v>0.4911242603550296</v>
       </c>
       <c r="H8">
-        <v>0.484</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5425531914893617</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C9">
-        <v>0.5026954177897575</v>
+        <v>0.5027173913043478</v>
       </c>
       <c r="D9">
-        <v>0.4942528735632184</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E9">
-        <v>0.4909747292418772</v>
+        <v>0.4921968787515006</v>
       </c>
       <c r="F9">
-        <v>0.5454545454545454</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="G9">
-        <v>0.5065243179122183</v>
+        <v>0.4988290398126464</v>
       </c>
       <c r="H9">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5483870967741935</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C10">
-        <v>0.5125313283208021</v>
+        <v>0.5031928480204342</v>
       </c>
       <c r="D10">
-        <v>0.4315789473684211</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="E10">
-        <v>0.4803439803439803</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="F10">
-        <v>0.5476190476190477</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="G10">
-        <v>0.5072639225181598</v>
+        <v>0.4987834549878346</v>
       </c>
       <c r="H10">
-        <v>0.48</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4791666666666667</v>
+        <v>0.53</v>
       </c>
       <c r="C11">
-        <v>0.5094562647754137</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E11">
-        <v>0.4875930521091811</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="F11">
-        <v>0.5632183908045977</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="G11">
-        <v>0.5085365853658537</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.484</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4639175257731959</v>
+        <v>0.4672897196261682</v>
       </c>
       <c r="C12">
-        <v>0.5144124168514412</v>
+        <v>0.4906695938529089</v>
       </c>
       <c r="D12">
-        <v>0.4747474747474748</v>
+        <v>0.5125</v>
       </c>
       <c r="E12">
-        <v>0.4852941176470588</v>
+        <v>0.5084337349397591</v>
       </c>
       <c r="F12">
-        <v>0.5257731958762887</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G12">
-        <v>0.5127272727272727</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0.482</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4854368932038835</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="C13">
-        <v>0.5141065830721003</v>
+        <v>0.4973876698014629</v>
       </c>
       <c r="D13">
-        <v>0.5161290322580645</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="E13">
-        <v>0.4767726161369193</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="F13">
-        <v>0.5487804878048781</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="G13">
-        <v>0.5109223300970874</v>
+        <v>0.4993939393939394</v>
       </c>
       <c r="H13">
-        <v>0.484</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5185185185185185</v>
+        <v>0.44</v>
       </c>
       <c r="C14">
-        <v>0.5113524185587365</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="D14">
-        <v>0.5421686746987951</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="E14">
-        <v>0.4709443099273607</v>
+        <v>0.5006031363088058</v>
       </c>
       <c r="F14">
-        <v>0.5568181818181818</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="G14">
-        <v>0.5047732696897375</v>
+        <v>0.4842995169082125</v>
       </c>
       <c r="H14">
-        <v>0.486</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="C15">
-        <v>0.5065666041275797</v>
+        <v>0.4957666980244591</v>
       </c>
       <c r="D15">
-        <v>0.5342465753424658</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="E15">
-        <v>0.4707985697258641</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="F15">
-        <v>0.5128205128205128</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="G15">
-        <v>0.5011990407673861</v>
+        <v>0.4938423645320197</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4722222222222222</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="C16">
-        <v>0.5108303249097473</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="E16">
-        <v>0.4734939759036145</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>0.5057471264367817</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.5048426150121066</v>
+        <v>0.4901234567901235</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4680851063829787</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>0.5155979202772963</v>
+        <v>0.5017152658662093</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="E17">
-        <v>0.472972972972973</v>
+        <v>0.5024570024570024</v>
       </c>
       <c r="F17">
-        <v>0.5092592592592593</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="G17">
-        <v>0.50186799501868</v>
+        <v>0.4913151364764268</v>
       </c>
       <c r="H17">
-        <v>0.51</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,22 +842,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4897959183673469</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="C18">
-        <v>0.5118949958982772</v>
+        <v>0.5040849673202614</v>
       </c>
       <c r="D18">
-        <v>0.405940594059406</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="E18">
-        <v>0.476552598225602</v>
+        <v>0.5140758873929009</v>
       </c>
       <c r="F18">
-        <v>0.4867256637168141</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="G18">
-        <v>0.4942965779467681</v>
+        <v>0.4901719901719901</v>
       </c>
       <c r="H18">
         <v>0.516</v>
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4774774774774775</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="C19">
-        <v>0.5078492935635793</v>
+        <v>0.5066147859922179</v>
       </c>
       <c r="D19">
-        <v>0.4838709677419355</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E19">
-        <v>0.4839506172839506</v>
+        <v>0.5097323600973236</v>
       </c>
       <c r="F19">
-        <v>0.4700854700854701</v>
+        <v>0.3936170212765958</v>
       </c>
       <c r="G19">
-        <v>0.4962406015037594</v>
+        <v>0.4981818181818182</v>
       </c>
       <c r="H19">
-        <v>0.524</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4579439252336449</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C20">
-        <v>0.5128205128205128</v>
+        <v>0.5011152416356878</v>
       </c>
       <c r="D20">
-        <v>0.4432989690721649</v>
+        <v>0.4875</v>
       </c>
       <c r="E20">
-        <v>0.4801920768307323</v>
+        <v>0.5091352009744214</v>
       </c>
       <c r="F20">
-        <v>0.4615384615384616</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G20">
-        <v>0.4944375772558715</v>
+        <v>0.5018315018315018</v>
       </c>
       <c r="H20">
-        <v>0.532</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>0.5128755364806867</v>
+        <v>0.5</v>
       </c>
       <c r="D21">
-        <v>0.3855421686746988</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="E21">
-        <v>0.4874551971326165</v>
+        <v>0.5024154589371981</v>
       </c>
       <c r="F21">
-        <v>0.4767441860465116</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G21">
-        <v>0.4945848375451263</v>
+        <v>0.5060386473429952</v>
       </c>
       <c r="H21">
-        <v>0.54</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5247524752475248</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C22">
-        <v>0.5010211027910143</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
-        <v>0.4078947368421053</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="E22">
-        <v>0.4841735052754982</v>
+        <v>0.503015681544029</v>
       </c>
       <c r="F22">
-        <v>0.4571428571428571</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G22">
-        <v>0.488235294117647</v>
+        <v>0.5060532687651331</v>
       </c>
       <c r="H22">
-        <v>0.546</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4941176470588236</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C23">
-        <v>0.5046235138705416</v>
+        <v>0.4953457446808511</v>
       </c>
       <c r="D23">
-        <v>0.6282051282051282</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="E23">
-        <v>0.4802395209580838</v>
+        <v>0.5055079559363526</v>
       </c>
       <c r="F23">
-        <v>0.4864864864864865</v>
+        <v>0.48</v>
       </c>
       <c r="G23">
-        <v>0.4958481613285884</v>
+        <v>0.5048780487804878</v>
       </c>
       <c r="H23">
-        <v>0.528</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5178571428571429</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C24">
-        <v>0.5072830905636478</v>
+        <v>0.4996796925048046</v>
       </c>
       <c r="D24">
-        <v>0.4848484848484849</v>
+        <v>0.5773195876288659</v>
       </c>
       <c r="E24">
-        <v>0.4632352941176471</v>
+        <v>0.50920245398773</v>
       </c>
       <c r="F24">
-        <v>0.5048543689320388</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G24">
-        <v>0.4853658536585366</v>
+        <v>0.5152253349573691</v>
       </c>
       <c r="H24">
-        <v>0.538</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5172413793103449</v>
+        <v>0.55</v>
       </c>
       <c r="C25">
-        <v>0.5065584009993754</v>
+        <v>0.4993804213135068</v>
       </c>
       <c r="D25">
-        <v>0.485981308411215</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
-        <v>0.4688279301745636</v>
+        <v>0.5012315270935961</v>
       </c>
       <c r="F25">
-        <v>0.5617977528089888</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.4844333748443337</v>
+        <v>0.5105067985166872</v>
       </c>
       <c r="H25">
-        <v>0.534</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5258620689655172</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="C26">
-        <v>0.5018203883495146</v>
+        <v>0.5015087507543754</v>
       </c>
       <c r="D26">
-        <v>0.4854368932038835</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="E26">
-        <v>0.4767295597484277</v>
+        <v>0.5067817509247842</v>
       </c>
       <c r="F26">
-        <v>0.5306122448979592</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="G26">
-        <v>0.4858548585485855</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="H26">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.504424778761062</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C27">
-        <v>0.4991233196960841</v>
+        <v>0.4997101449275362</v>
       </c>
       <c r="D27">
-        <v>0.5272727272727272</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="E27">
-        <v>0.4827586206896552</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="F27">
-        <v>0.4141414141414141</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="G27">
-        <v>0.4938875305623472</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="H27">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>0.4997179921037789</v>
+        <v>0.5016891891891891</v>
       </c>
       <c r="D28">
-        <v>0.5425531914893617</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="E28">
-        <v>0.4926289926289926</v>
+        <v>0.5054413542926239</v>
       </c>
       <c r="F28">
-        <v>0.4105263157894737</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="G28">
-        <v>0.4993939393939394</v>
+        <v>0.518925518925519</v>
       </c>
       <c r="H28">
-        <v>0.524</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.4509803921568628</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="C29">
-        <v>0.5005506607929515</v>
+        <v>0.5046575342465753</v>
       </c>
       <c r="D29">
-        <v>0.5154639175257731</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E29">
-        <v>0.4963503649635037</v>
+        <v>0.5041716328963052</v>
       </c>
       <c r="F29">
-        <v>0.3617021276595745</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="G29">
-        <v>0.4835566382460414</v>
+        <v>0.5194174757281553</v>
       </c>
       <c r="H29">
-        <v>0.54</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.4862385321100918</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C30">
-        <v>0.502905441098785</v>
+        <v>0.5063424947145877</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E30">
-        <v>0.5012285012285013</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="F30">
-        <v>0.4148936170212766</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G30">
-        <v>0.4877750611246944</v>
+        <v>0.513189448441247</v>
       </c>
       <c r="H30">
-        <v>0.536</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5317460317460317</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="C31">
-        <v>0.5033487892838743</v>
+        <v>0.501039501039501</v>
       </c>
       <c r="D31">
-        <v>0.4387755102040816</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="E31">
-        <v>0.5012224938875306</v>
+        <v>0.5060827250608273</v>
       </c>
       <c r="F31">
-        <v>0.4827586206896552</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="G31">
-        <v>0.4736842105263158</v>
+        <v>0.5194647201946472</v>
       </c>
       <c r="H31">
-        <v>0.55</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="C32">
-        <v>0.5005040322580645</v>
+        <v>0.4984894259818731</v>
       </c>
       <c r="D32">
-        <v>0.4105263157894737</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
-        <v>0.5091575091575091</v>
+        <v>0.5096852300242131</v>
       </c>
       <c r="F32">
-        <v>0.4886363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G32">
-        <v>0.472289156626506</v>
+        <v>0.517406962785114</v>
       </c>
       <c r="H32">
-        <v>0.538</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4766355140186916</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="C33">
-        <v>0.5027027027027027</v>
+        <v>0.4977777777777778</v>
       </c>
       <c r="D33">
-        <v>0.4431818181818182</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="E33">
-        <v>0.5121359223300971</v>
+        <v>0.5166872682323856</v>
       </c>
       <c r="F33">
-        <v>0.4831460674157304</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="G33">
-        <v>0.4759615384615384</v>
+        <v>0.5177914110429448</v>
       </c>
       <c r="H33">
-        <v>0.534</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.4444444444444444</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="C34">
-        <v>0.5056764427625354</v>
+        <v>0.497377205531712</v>
       </c>
       <c r="D34">
-        <v>0.4891304347826087</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E34">
-        <v>0.5163636363636364</v>
+        <v>0.5210396039603961</v>
       </c>
       <c r="F34">
-        <v>0.4415584415584415</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G34">
-        <v>0.4781553398058253</v>
+        <v>0.511742892459827</v>
       </c>
       <c r="H34">
-        <v>0.52</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4851485148514851</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C35">
-        <v>0.5048543689320388</v>
+        <v>0.5018484288354899</v>
       </c>
       <c r="D35">
-        <v>0.4854368932038835</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="E35">
-        <v>0.5123152709359606</v>
+        <v>0.5252774352651048</v>
       </c>
       <c r="F35">
-        <v>0.3595505617977528</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="G35">
-        <v>0.4685990338164251</v>
+        <v>0.5073891625615764</v>
       </c>
       <c r="H35">
-        <v>0.518</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="C36">
-        <v>0.5024741340530814</v>
+        <v>0.5038340099233198</v>
       </c>
       <c r="D36">
-        <v>0.5700934579439252</v>
+        <v>0.5625</v>
       </c>
       <c r="E36">
-        <v>0.5105853051058531</v>
+        <v>0.5299877600979193</v>
       </c>
       <c r="F36">
-        <v>0.4634146341463415</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G36">
-        <v>0.4700854700854701</v>
+        <v>0.5048309178743962</v>
       </c>
       <c r="H36">
-        <v>0.52</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4684684684684685</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="C37">
-        <v>0.5032996040475143</v>
+        <v>0.5004397537379067</v>
       </c>
       <c r="D37">
-        <v>0.5504587155963303</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="E37">
-        <v>0.5100502512562815</v>
+        <v>0.5238678090575275</v>
       </c>
       <c r="F37">
-        <v>0.3736263736263736</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="G37">
-        <v>0.4501216545012166</v>
+        <v>0.4987951807228916</v>
       </c>
       <c r="H37">
-        <v>0.516</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4774774774774775</v>
+        <v>0.5363636363636364</v>
       </c>
       <c r="C38">
-        <v>0.5040930633347694</v>
+        <v>0.4993564993564993</v>
       </c>
       <c r="D38">
-        <v>0.5043478260869565</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="E38">
-        <v>0.5181023720349563</v>
+        <v>0.5220588235294118</v>
       </c>
       <c r="F38">
-        <v>0.3763440860215054</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="G38">
-        <v>0.4609756097560976</v>
+        <v>0.5024154589371981</v>
       </c>
       <c r="H38">
-        <v>0.508</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4752475247524752</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C39">
-        <v>0.5016906170752324</v>
+        <v>0.4978813559322034</v>
       </c>
       <c r="D39">
-        <v>0.5102040816326531</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="E39">
-        <v>0.5157629255989912</v>
+        <v>0.5180572851805728</v>
       </c>
       <c r="F39">
-        <v>0.3793103448275862</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="G39">
-        <v>0.4583333333333333</v>
+        <v>0.4932182490752158</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5172413793103449</v>
+        <v>0.4513274336283186</v>
       </c>
       <c r="C40">
-        <v>0.5010283833813246</v>
+        <v>0.5008196721311475</v>
       </c>
       <c r="D40">
-        <v>0.5943396226415094</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="E40">
-        <v>0.5148883374689827</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="F40">
-        <v>0.4895833333333333</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="G40">
-        <v>0.4516523867809057</v>
+        <v>0.4952153110047847</v>
       </c>
       <c r="H40">
-        <v>0.502</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5326086956521739</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="C41">
-        <v>0.4994007191370355</v>
+        <v>0.5054545454545455</v>
       </c>
       <c r="D41">
-        <v>0.580952380952381</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="E41">
-        <v>0.5104808877928483</v>
+        <v>0.4993819530284301</v>
       </c>
       <c r="F41">
-        <v>0.5054945054945055</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="G41">
-        <v>0.4452554744525548</v>
+        <v>0.5042424242424243</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.52</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C42">
-        <v>0.5023382696804365</v>
+        <v>0.5053338601343342</v>
       </c>
       <c r="D42">
-        <v>0.5842696629213483</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E42">
-        <v>0.5170316301703163</v>
+        <v>0.5030978934324659</v>
       </c>
       <c r="F42">
-        <v>0.4782608695652174</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="G42">
-        <v>0.4522673031026253</v>
+        <v>0.5132530120481927</v>
       </c>
       <c r="H42">
-        <v>0.484</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.504950495049505</v>
+        <v>0.4961832061068702</v>
       </c>
       <c r="C43">
-        <v>0.5028768699654775</v>
+        <v>0.5013529184383456</v>
       </c>
       <c r="D43">
-        <v>0.3875</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="E43">
-        <v>0.519277108433735</v>
+        <v>0.5012254901960784</v>
       </c>
       <c r="F43">
-        <v>0.4492753623188406</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G43">
-        <v>0.4570737605804111</v>
+        <v>0.5186522262334536</v>
       </c>
       <c r="H43">
-        <v>0.484</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5643564356435643</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C44">
-        <v>0.5048872180451128</v>
+        <v>0.5049618320610687</v>
       </c>
       <c r="D44">
-        <v>0.4343434343434344</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="E44">
-        <v>0.5303398058252428</v>
+        <v>0.49812734082397</v>
       </c>
       <c r="F44">
-        <v>0.4878048780487805</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="G44">
-        <v>0.4569377990430622</v>
+        <v>0.5322777101096224</v>
       </c>
       <c r="H44">
-        <v>0.484</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5051546391752577</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="C45">
-        <v>0.5011021307861866</v>
+        <v>0.5081845238095238</v>
       </c>
       <c r="D45">
-        <v>0.45</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="E45">
-        <v>0.5299877600979193</v>
+        <v>0.4957160342717258</v>
       </c>
       <c r="F45">
-        <v>0.4827586206896552</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G45">
-        <v>0.4616306954436451</v>
+        <v>0.5237515225334958</v>
       </c>
       <c r="H45">
-        <v>0.474</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5051546391752577</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C46">
-        <v>0.5025161754133717</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="D46">
-        <v>0.5274725274725275</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E46">
-        <v>0.5219512195121951</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="F46">
-        <v>0.4390243902439024</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="G46">
-        <v>0.4616306954436451</v>
+        <v>0.5253623188405797</v>
       </c>
       <c r="H46">
-        <v>0.486</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4705882352941176</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="C47">
-        <v>0.5029961226647868</v>
+        <v>0.5032005689900427</v>
       </c>
       <c r="D47">
-        <v>0.5376344086021505</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="E47">
-        <v>0.520048602673147</v>
+        <v>0.4886499402628435</v>
       </c>
       <c r="F47">
-        <v>0.475</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="G47">
-        <v>0.4675480769230769</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="H47">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4385964912280702</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="C48">
-        <v>0.5059068797776234</v>
+        <v>0.5031556802244039</v>
       </c>
       <c r="D48">
-        <v>0.4838709677419355</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E48">
-        <v>0.5203955500618047</v>
+        <v>0.4877450980392157</v>
       </c>
       <c r="F48">
-        <v>0.4431818181818182</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="G48">
-        <v>0.4696601941747573</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="H48">
-        <v>0.474</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4571428571428571</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="C49">
-        <v>0.5075187969924813</v>
+        <v>0.5022514721163838</v>
       </c>
       <c r="D49">
-        <v>0.4150943396226415</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="E49">
-        <v>0.5208845208845209</v>
+        <v>0.486318407960199</v>
       </c>
       <c r="F49">
-        <v>0.4623655913978494</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="G49">
-        <v>0.475609756097561</v>
+        <v>0.5287500000000001</v>
       </c>
       <c r="H49">
-        <v>0.456</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4259259259259259</v>
+        <v>0.52</v>
       </c>
       <c r="C50">
-        <v>0.5065152021383228</v>
+        <v>0.5027118644067796</v>
       </c>
       <c r="D50">
-        <v>0.4285714285714285</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="E50">
-        <v>0.5233990147783252</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="F50">
-        <v>0.524390243902439</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G50">
-        <v>0.4690909090909091</v>
+        <v>0.5300751879699248</v>
       </c>
       <c r="H50">
-        <v>0.458</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4807692307692308</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="C51">
-        <v>0.5070607553366174</v>
+        <v>0.5013227513227513</v>
       </c>
       <c r="D51">
-        <v>0.4615384615384616</v>
+        <v>0.53125</v>
       </c>
       <c r="E51">
-        <v>0.5134474327628362</v>
+        <v>0.4852579852579852</v>
       </c>
       <c r="F51">
-        <v>0.5280898876404494</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="G51">
-        <v>0.4724220623501199</v>
+        <v>0.5300613496932516</v>
       </c>
       <c r="H51">
-        <v>0.44</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5051546391752577</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="C52">
-        <v>0.5040205853972338</v>
+        <v>0.4991859329208727</v>
       </c>
       <c r="D52">
-        <v>0.4938271604938271</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="E52">
-        <v>0.5114873035066505</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="F52">
-        <v>0.6097560975609756</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="G52">
-        <v>0.4668275030156815</v>
+        <v>0.5247285886610374</v>
       </c>
       <c r="H52">
-        <v>0.45</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5151515151515151</v>
+        <v>0.5</v>
       </c>
       <c r="C53">
-        <v>0.5026737967914439</v>
+        <v>0.5030341743851805</v>
       </c>
       <c r="D53">
-        <v>0.5125</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="E53">
-        <v>0.5071258907363421</v>
+        <v>0.4909529553679132</v>
       </c>
       <c r="F53">
-        <v>0.5280898876404494</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="G53">
-        <v>0.4643705463182898</v>
+        <v>0.5276442307692307</v>
       </c>
       <c r="H53">
-        <v>0.46</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4653465346534654</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="C54">
-        <v>0.5023141005862388</v>
+        <v>0.5012507817385866</v>
       </c>
       <c r="D54">
-        <v>0.5064935064935064</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="E54">
-        <v>0.508235294117647</v>
+        <v>0.489311163895487</v>
       </c>
       <c r="F54">
-        <v>0.5609756097560976</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="G54">
-        <v>0.4673008323424495</v>
+        <v>0.5443645083932853</v>
       </c>
       <c r="H54">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4536082474226804</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C55">
-        <v>0.5053175326648435</v>
+        <v>0.5001536098310292</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="E55">
-        <v>0.5148279952550415</v>
+        <v>0.4934445768772348</v>
       </c>
       <c r="F55">
-        <v>0.5679012345679012</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="G55">
-        <v>0.4714285714285714</v>
+        <v>0.5409638554216868</v>
       </c>
       <c r="H55">
-        <v>0.466</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4791666666666667</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C56">
-        <v>0.5031390134529148</v>
+        <v>0.5040773180308064</v>
       </c>
       <c r="D56">
-        <v>0.4352941176470588</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="E56">
-        <v>0.5156626506024097</v>
+        <v>0.4899645808736718</v>
       </c>
       <c r="F56">
-        <v>0.4588235294117647</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G56">
-        <v>0.4648910411622276</v>
+        <v>0.5421115065243179</v>
       </c>
       <c r="H56">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4727272727272727</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C57">
-        <v>0.5036840554081934</v>
+        <v>0.5025335320417288</v>
       </c>
       <c r="D57">
-        <v>0.5463917525773195</v>
+        <v>0.3924050632911392</v>
       </c>
       <c r="E57">
-        <v>0.5184275184275184</v>
+        <v>0.48721071863581</v>
       </c>
       <c r="F57">
-        <v>0.4615384615384616</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="G57">
-        <v>0.4680589680589681</v>
+        <v>0.5450121654501217</v>
       </c>
       <c r="H57">
-        <v>0.49</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5242718446601942</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C58">
-        <v>0.5036453776611257</v>
+        <v>0.5014688601645123</v>
       </c>
       <c r="D58">
-        <v>0.5247524752475248</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="E58">
-        <v>0.5143570536828964</v>
+        <v>0.4951219512195122</v>
       </c>
       <c r="F58">
-        <v>0.4791666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G58">
-        <v>0.4721189591078067</v>
+        <v>0.5398773006134969</v>
       </c>
       <c r="H58">
-        <v>0.486</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4886363636363636</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="C59">
-        <v>0.5015727766657134</v>
+        <v>0.501155401502022</v>
       </c>
       <c r="D59">
-        <v>0.4722222222222222</v>
+        <v>0.49</v>
       </c>
       <c r="E59">
-        <v>0.5073891625615764</v>
+        <v>0.4926650366748166</v>
       </c>
       <c r="F59">
-        <v>0.5217391304347826</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G59">
-        <v>0.4731051344743276</v>
+        <v>0.5401730531520396</v>
       </c>
       <c r="H59">
-        <v>0.472</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5145631067961165</v>
+        <v>0.5</v>
       </c>
       <c r="C60">
-        <v>0.5028011204481793</v>
+        <v>0.5011350737797957</v>
       </c>
       <c r="D60">
-        <v>0.5473684210526316</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E60">
-        <v>0.5153374233128835</v>
+        <v>0.496947496947497</v>
       </c>
       <c r="F60">
-        <v>0.5638297872340425</v>
+        <v>0.4375</v>
       </c>
       <c r="G60">
-        <v>0.4771634615384616</v>
+        <v>0.5348557692307693</v>
       </c>
       <c r="H60">
-        <v>0.462</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5142857142857142</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="C61">
-        <v>0.5016574585635359</v>
+        <v>0.5012517385257301</v>
       </c>
       <c r="D61">
-        <v>0.5340909090909091</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="E61">
-        <v>0.5168269230769231</v>
+        <v>0.4976019184652278</v>
       </c>
       <c r="F61">
-        <v>0.573170731707317</v>
+        <v>0.5</v>
       </c>
       <c r="G61">
-        <v>0.4789915966386555</v>
+        <v>0.5252643948296122</v>
       </c>
       <c r="H61">
-        <v>0.454</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4903846153846154</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C62">
-        <v>0.5023154453827295</v>
+        <v>0.5038503850385039</v>
       </c>
       <c r="D62">
-        <v>0.5</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="E62">
-        <v>0.5144578313253012</v>
+        <v>0.5018315018315018</v>
       </c>
       <c r="F62">
-        <v>0.4507042253521127</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="G62">
-        <v>0.4785202863961814</v>
+        <v>0.5150421179302046</v>
       </c>
       <c r="H62">
-        <v>0.456</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4774774774774775</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C63">
-        <v>0.5024167561761547</v>
+        <v>0.5052603183166982</v>
       </c>
       <c r="D63">
-        <v>0.4772727272727273</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E63">
-        <v>0.5199516324062878</v>
+        <v>0.5036407766990292</v>
       </c>
       <c r="F63">
-        <v>0.5357142857142857</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G63">
-        <v>0.4808153477218226</v>
+        <v>0.5102781136638452</v>
       </c>
       <c r="H63">
-        <v>0.458</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5169491525423728</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="C64">
-        <v>0.5017227670288895</v>
+        <v>0.5042485395645246</v>
       </c>
       <c r="D64">
-        <v>0.5473684210526316</v>
+        <v>0.4</v>
       </c>
       <c r="E64">
-        <v>0.5164433617539586</v>
+        <v>0.5036231884057971</v>
       </c>
       <c r="F64">
-        <v>0.5106382978723404</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="G64">
-        <v>0.4787878787878788</v>
+        <v>0.5042117930204573</v>
       </c>
       <c r="H64">
-        <v>0.456</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4537037037037037</v>
+        <v>0.5463917525773195</v>
       </c>
       <c r="C65">
-        <v>0.4997376705141658</v>
+        <v>0.5037928328537797</v>
       </c>
       <c r="D65">
-        <v>0.6555555555555556</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="E65">
-        <v>0.511742892459827</v>
+        <v>0.4951807228915663</v>
       </c>
       <c r="F65">
-        <v>0.5368421052631579</v>
+        <v>0.4625</v>
       </c>
       <c r="G65">
-        <v>0.4753086419753086</v>
+        <v>0.5108433734939759</v>
       </c>
       <c r="H65">
-        <v>0.474</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4285714285714285</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C66">
-        <v>0.5037361504766813</v>
+        <v>0.5033678756476684</v>
       </c>
       <c r="D66">
-        <v>0.5922330097087378</v>
+        <v>0.3936170212765958</v>
       </c>
       <c r="E66">
-        <v>0.5030674846625767</v>
+        <v>0.4920828258221681</v>
       </c>
       <c r="F66">
-        <v>0.4953271028037383</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="G66">
-        <v>0.4747225647348952</v>
+        <v>0.5170316301703163</v>
       </c>
       <c r="H66">
-        <v>0.476</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="C67">
-        <v>0.5048247841543931</v>
+        <v>0.5026888604353393</v>
       </c>
       <c r="D67">
-        <v>0.4591836734693878</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E67">
-        <v>0.5140758873929009</v>
+        <v>0.4905897114178168</v>
       </c>
       <c r="F67">
-        <v>0.5252525252525253</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="G67">
-        <v>0.4815724815724816</v>
+        <v>0.5201511335012594</v>
       </c>
       <c r="H67">
-        <v>0.482</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.4803921568627451</v>
+        <v>0.53125</v>
       </c>
       <c r="C68">
-        <v>0.50325</v>
+        <v>0.5035425101214575</v>
       </c>
       <c r="D68">
-        <v>0.4285714285714285</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="E68">
-        <v>0.5159313725490197</v>
+        <v>0.4879288437102923</v>
       </c>
       <c r="F68">
-        <v>0.5172413793103449</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="G68">
-        <v>0.4742647058823529</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H68">
-        <v>0.494</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.4951456310679612</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C69">
-        <v>0.5029600394671929</v>
+        <v>0.5029955067398901</v>
       </c>
       <c r="D69">
-        <v>0.4470588235294118</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="E69">
-        <v>0.5078979343863913</v>
+        <v>0.4942381562099872</v>
       </c>
       <c r="F69">
-        <v>0.5625</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="G69">
-        <v>0.4719512195121951</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="H69">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4862385321100918</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C70">
-        <v>0.5031645569620253</v>
+        <v>0.5030750307503075</v>
       </c>
       <c r="D70">
-        <v>0.5172413793103449</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="E70">
-        <v>0.509090909090909</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="F70">
-        <v>0.6153846153846154</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G70">
-        <v>0.4773006134969325</v>
+        <v>0.5232273838630807</v>
       </c>
       <c r="H70">
-        <v>0.492</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5283018867924528</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="C71">
-        <v>0.5037358399614364</v>
+        <v>0.5041142303969022</v>
       </c>
       <c r="D71">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E71">
-        <v>0.5006119951040392</v>
+        <v>0.4987864077669903</v>
       </c>
       <c r="F71">
-        <v>0.5268817204301075</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="G71">
-        <v>0.4852941176470588</v>
+        <v>0.5287081339712919</v>
       </c>
       <c r="H71">
-        <v>0.484</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.4509803921568628</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="C72">
-        <v>0.502495840266223</v>
+        <v>0.5045432807269249</v>
       </c>
       <c r="D72">
-        <v>0.425531914893617</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E72">
-        <v>0.5091352009744214</v>
+        <v>0.5006002400960384</v>
       </c>
       <c r="F72">
-        <v>0.5588235294117647</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G72">
-        <v>0.4815270935960591</v>
+        <v>0.5184743742550656</v>
       </c>
       <c r="H72">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.4953271028037383</v>
+        <v>0.5643564356435643</v>
       </c>
       <c r="C73">
-        <v>0.5042154566744731</v>
+        <v>0.5051984877126654</v>
       </c>
       <c r="D73">
-        <v>0.5</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="E73">
-        <v>0.5145985401459854</v>
+        <v>0.5071770334928229</v>
       </c>
       <c r="F73">
-        <v>0.5463917525773195</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G73">
-        <v>0.4816176470588235</v>
+        <v>0.511377245508982</v>
       </c>
       <c r="H73">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.4945054945054945</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="C74">
-        <v>0.5032467532467533</v>
+        <v>0.503257328990228</v>
       </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="E74">
-        <v>0.5061274509803921</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="F74">
-        <v>0.4886363636363636</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="G74">
-        <v>0.4845869297163995</v>
+        <v>0.51145958986731</v>
       </c>
       <c r="H74">
-        <v>0.486</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5057471264367817</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C75">
-        <v>0.5025022747952684</v>
+        <v>0.5036714089031666</v>
       </c>
       <c r="D75">
-        <v>0.5185185185185185</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="E75">
-        <v>0.5024390243902439</v>
+        <v>0.5066344993968637</v>
       </c>
       <c r="F75">
-        <v>0.5052631578947369</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="G75">
-        <v>0.4879227053140097</v>
+        <v>0.5084337349397591</v>
       </c>
       <c r="H75">
-        <v>0.478</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5148514851485149</v>
+        <v>0.5</v>
       </c>
       <c r="C76">
-        <v>0.5033572068039391</v>
+        <v>0.5040909090909091</v>
       </c>
       <c r="D76">
-        <v>0.5411764705882353</v>
+        <v>0.5</v>
       </c>
       <c r="E76">
-        <v>0.4957780458383595</v>
+        <v>0.5128518971848225</v>
       </c>
       <c r="F76">
-        <v>0.5657894736842105</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="G76">
-        <v>0.4845605700712589</v>
+        <v>0.4969770253929867</v>
       </c>
       <c r="H76">
-        <v>0.494</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5504587155963303</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="C77">
-        <v>0.5035398230088496</v>
+        <v>0.5038150807899462</v>
       </c>
       <c r="D77">
-        <v>0.5</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="E77">
-        <v>0.491186839012926</v>
+        <v>0.5092936802973977</v>
       </c>
       <c r="F77">
-        <v>0.5967741935483871</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="G77">
-        <v>0.4883720930232558</v>
+        <v>0.4950980392156863</v>
       </c>
       <c r="H77">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4803921568627451</v>
+        <v>0.5350877192982456</v>
       </c>
       <c r="C78">
-        <v>0.5031833150384193</v>
+        <v>0.502101305021013</v>
       </c>
       <c r="D78">
-        <v>0.4864864864864865</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="E78">
-        <v>0.4874551971326165</v>
+        <v>0.5147420147420148</v>
       </c>
       <c r="F78">
-        <v>0.6119402985074627</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="G78">
-        <v>0.4829210836277974</v>
+        <v>0.4950859950859951</v>
       </c>
       <c r="H78">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5588235294117647</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="C79">
-        <v>0.5056350238404855</v>
+        <v>0.5021910604732691</v>
       </c>
       <c r="D79">
-        <v>0.4948453608247423</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="E79">
-        <v>0.4848484848484849</v>
+        <v>0.5152998776009792</v>
       </c>
       <c r="F79">
-        <v>0.5729166666666666</v>
+        <v>0.47</v>
       </c>
       <c r="G79">
-        <v>0.4963942307692308</v>
+        <v>0.4805352798053528</v>
       </c>
       <c r="H79">
-        <v>0.494</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5172413793103449</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C80">
-        <v>0.5034231921266581</v>
+        <v>0.5021588946459413</v>
       </c>
       <c r="D80">
-        <v>0.4361702127659575</v>
+        <v>0.55</v>
       </c>
       <c r="E80">
-        <v>0.4841075794621027</v>
+        <v>0.5125748502994012</v>
       </c>
       <c r="F80">
-        <v>0.4880952380952381</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="G80">
-        <v>0.5</v>
+        <v>0.4849939975990396</v>
       </c>
       <c r="H80">
-        <v>0.492</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.509090909090909</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="C81">
-        <v>0.5039170019055685</v>
+        <v>0.5024515028778512</v>
       </c>
       <c r="D81">
-        <v>0.5116279069767442</v>
+        <v>0.5822784810126582</v>
       </c>
       <c r="E81">
-        <v>0.4909529553679132</v>
+        <v>0.5130331753554502</v>
       </c>
       <c r="F81">
-        <v>0.4814814814814815</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G81">
-        <v>0.5119047619047619</v>
+        <v>0.4851367419738407</v>
       </c>
       <c r="H81">
-        <v>0.488</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5294117647058824</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C82">
-        <v>0.5058651026392962</v>
+        <v>0.5014712063892391</v>
       </c>
       <c r="D82">
-        <v>0.5384615384615384</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="E82">
-        <v>0.4854014598540146</v>
+        <v>0.519434628975265</v>
       </c>
       <c r="F82">
-        <v>0.4571428571428571</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="G82">
-        <v>0.5126964933494559</v>
+        <v>0.4871495327102804</v>
       </c>
       <c r="H82">
-        <v>0.488</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.495049504950495</v>
+        <v>0.5041322314049587</v>
       </c>
       <c r="C83">
-        <v>0.5048583832954311</v>
+        <v>0.5009400459578024</v>
       </c>
       <c r="D83">
-        <v>0.4456521739130435</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="E83">
-        <v>0.4909090909090909</v>
+        <v>0.5186522262334536</v>
       </c>
       <c r="F83">
-        <v>0.4831460674157304</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G83">
-        <v>0.5078031212484994</v>
+        <v>0.4892344497607656</v>
       </c>
       <c r="H83">
-        <v>0.494</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5368421052631579</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C84">
-        <v>0.5055192150449714</v>
+        <v>0.5007229911175377</v>
       </c>
       <c r="D84">
-        <v>0.4588235294117647</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="E84">
-        <v>0.4914841849148419</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F84">
-        <v>0.4268292682926829</v>
+        <v>0.5</v>
       </c>
       <c r="G84">
-        <v>0.5048426150121066</v>
+        <v>0.4908424908424908</v>
       </c>
       <c r="H84">
-        <v>0.486</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4838709677419355</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C85">
-        <v>0.5041338979632991</v>
+        <v>0.5002042483660131</v>
       </c>
       <c r="D85">
-        <v>0.4606741573033708</v>
+        <v>0.5412844036697247</v>
       </c>
       <c r="E85">
-        <v>0.4933973589435774</v>
+        <v>0.5276381909547738</v>
       </c>
       <c r="F85">
-        <v>0.425531914893617</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="G85">
-        <v>0.5101553166069295</v>
+        <v>0.4863523573200992</v>
       </c>
       <c r="H85">
-        <v>0.468</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.495049504950495</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="C86">
-        <v>0.5052799362422793</v>
+        <v>0.4997977346278317</v>
       </c>
       <c r="D86">
-        <v>0.4878048780487805</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="E86">
-        <v>0.4945978391356542</v>
+        <v>0.5235668789808917</v>
       </c>
       <c r="F86">
-        <v>0.4883720930232558</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="G86">
-        <v>0.5108695652173914</v>
+        <v>0.4819427148194271</v>
       </c>
       <c r="H86">
-        <v>0.478</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5137614678899083</v>
+        <v>0.5350877192982456</v>
       </c>
       <c r="C87">
-        <v>0.5041420118343195</v>
+        <v>0.4996012759170654</v>
       </c>
       <c r="D87">
-        <v>0.4666666666666667</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="E87">
-        <v>0.4964114832535885</v>
+        <v>0.5282308657465495</v>
       </c>
       <c r="F87">
-        <v>0.5</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="G87">
-        <v>0.5035971223021583</v>
+        <v>0.4781021897810219</v>
       </c>
       <c r="H87">
-        <v>0.466</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5229357798165137</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C88">
-        <v>0.5037240297922383</v>
+        <v>0.4994078168180024</v>
       </c>
       <c r="D88">
-        <v>0.5180722891566265</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="E88">
-        <v>0.5006060606060606</v>
+        <v>0.5284159613059251</v>
       </c>
       <c r="F88">
-        <v>0.4047619047619048</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G88">
-        <v>0.5098039215686274</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="H88">
-        <v>0.462</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C89">
-        <v>0.5042701863354038</v>
+        <v>0.4998053717399766</v>
       </c>
       <c r="D89">
-        <v>0.49</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="E89">
-        <v>0.5049382716049383</v>
+        <v>0.527876631079478</v>
       </c>
       <c r="F89">
-        <v>0.4466019417475728</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="G89">
-        <v>0.515451174289246</v>
+        <v>0.4691211401425178</v>
       </c>
       <c r="H89">
-        <v>0.456</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5185185185185185</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="C90">
-        <v>0.504212945231712</v>
+        <v>0.4999035679845709</v>
       </c>
       <c r="D90">
-        <v>0.4851485148514851</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="E90">
-        <v>0.5098280098280098</v>
+        <v>0.5255474452554745</v>
       </c>
       <c r="F90">
-        <v>0.4433962264150944</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G90">
-        <v>0.5104808877928483</v>
+        <v>0.4835566382460414</v>
       </c>
       <c r="H90">
-        <v>0.454</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5544554455445545</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C91">
-        <v>0.5049335863377609</v>
+        <v>0.5010486177311726</v>
       </c>
       <c r="D91">
-        <v>0.4285714285714285</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="E91">
-        <v>0.4957160342717258</v>
+        <v>0.5234567901234568</v>
       </c>
       <c r="F91">
-        <v>0.4197530864197531</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="G91">
-        <v>0.5055350553505535</v>
+        <v>0.4907749077490775</v>
       </c>
       <c r="H91">
-        <v>0.454</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4954128440366973</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C92">
-        <v>0.5041229385307346</v>
+        <v>0.5005656108597285</v>
       </c>
       <c r="D92">
-        <v>0.4782608695652174</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="E92">
-        <v>0.5</v>
+        <v>0.5262515262515263</v>
       </c>
       <c r="F92">
-        <v>0.5348837209302325</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="G92">
-        <v>0.5017921146953405</v>
+        <v>0.4981640146878825</v>
       </c>
       <c r="H92">
-        <v>0.456</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4646464646464646</v>
+        <v>0.4336283185840708</v>
       </c>
       <c r="C93">
-        <v>0.505657577443888</v>
+        <v>0.5016841317365269</v>
       </c>
       <c r="D93">
-        <v>0.5180722891566265</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="E93">
-        <v>0.4891826923076923</v>
+        <v>0.5205811138014528</v>
       </c>
       <c r="F93">
-        <v>0.5487804878048781</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="G93">
-        <v>0.499404052443385</v>
+        <v>0.508578431372549</v>
       </c>
       <c r="H93">
-        <v>0.46</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4761904761904762</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C94">
-        <v>0.5056943423952975</v>
+        <v>0.5012958163643095</v>
       </c>
       <c r="D94">
-        <v>0.4473684210526316</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="E94">
-        <v>0.4896969696969697</v>
+        <v>0.5264423076923077</v>
       </c>
       <c r="F94">
-        <v>0.5584415584415584</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="G94">
-        <v>0.4945586457073761</v>
+        <v>0.5036057692307693</v>
       </c>
       <c r="H94">
-        <v>0.468</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4953271028037383</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C95">
-        <v>0.5057241504633836</v>
+        <v>0.5016447368421053</v>
       </c>
       <c r="D95">
-        <v>0.5</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="E95">
-        <v>0.4945978391356542</v>
+        <v>0.5251798561151079</v>
       </c>
       <c r="F95">
-        <v>0.4893617021276596</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="G95">
-        <v>0.5006002400960384</v>
+        <v>0.5083732057416268</v>
       </c>
       <c r="H95">
-        <v>0.472</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5473684210526316</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C96">
-        <v>0.5044899425287356</v>
+        <v>0.4995476750497557</v>
       </c>
       <c r="D96">
-        <v>0.5066666666666667</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E96">
-        <v>0.4911032028469751</v>
+        <v>0.5155502392344498</v>
       </c>
       <c r="F96">
-        <v>0.5402298850574713</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G96">
-        <v>0.5041617122473246</v>
+        <v>0.5083532219570406</v>
       </c>
       <c r="H96">
-        <v>0.476</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.4838709677419355</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C97">
-        <v>0.5031100053314377</v>
+        <v>0.4998214923241699</v>
       </c>
       <c r="D97">
-        <v>0.5666666666666667</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="E97">
-        <v>0.4922711058263972</v>
+        <v>0.522673031026253</v>
       </c>
       <c r="F97">
-        <v>0.5540540540540541</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="G97">
-        <v>0.4933655006031363</v>
+        <v>0.5012048192771085</v>
       </c>
       <c r="H97">
-        <v>0.49</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4705882352941176</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="C98">
-        <v>0.5041380524740271</v>
+        <v>0.5006195786864932</v>
       </c>
       <c r="D98">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="E98">
+        <v>0.5249695493300852</v>
+      </c>
+      <c r="F98">
         <v>0.5402298850574713</v>
       </c>
-      <c r="E98">
-        <v>0.4934289127837515</v>
-      </c>
-      <c r="F98">
-        <v>0.5154639175257731</v>
-      </c>
       <c r="G98">
-        <v>0.4872417982989065</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="H98">
-        <v>0.498</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4867256637168141</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="C99">
-        <v>0.5043736878936319</v>
+        <v>0.500351370344343</v>
       </c>
       <c r="D99">
-        <v>0.5353535353535354</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="E99">
-        <v>0.5024691358024691</v>
+        <v>0.5233990147783252</v>
       </c>
       <c r="F99">
-        <v>0.4893617021276596</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="G99">
-        <v>0.49</v>
+        <v>0.5080147965474723</v>
       </c>
       <c r="H99">
-        <v>0.504</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5161290322580645</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="C100">
-        <v>0.5045935170740163</v>
+        <v>0.5024398745207389</v>
       </c>
       <c r="D100">
-        <v>0.4807692307692308</v>
+        <v>0.42</v>
       </c>
       <c r="E100">
-        <v>0.4963054187192118</v>
+        <v>0.5230961298377028</v>
       </c>
       <c r="F100">
-        <v>0.4757281553398058</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="G100">
-        <v>0.4908200734394125</v>
+        <v>0.50875</v>
       </c>
       <c r="H100">
-        <v>0.518</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4854368932038835</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="C101">
-        <v>0.5041081821294078</v>
+        <v>0.5012928805378383</v>
       </c>
       <c r="D101">
-        <v>0.4827586206896552</v>
+        <v>0.4174757281553398</v>
       </c>
       <c r="E101">
-        <v>0.5043050430504306</v>
+        <v>0.5154130702836005</v>
       </c>
       <c r="F101">
-        <v>0.5842696629213483</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="G101">
-        <v>0.4901719901719901</v>
+        <v>0.5118012422360249</v>
       </c>
       <c r="H101">
-        <v>0.518</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
